--- a/Grilles d'observation/Grille d’observation Galèrapagos V1.xlsx
+++ b/Grilles d'observation/Grille d’observation Galèrapagos V1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>Grille d’observation Galèrapagos</t>
   </si>
@@ -178,7 +178,25 @@
     <t>Indicateurs et modèles</t>
   </si>
   <si>
-    <t xml:space="preserve">Caractérisation de la prise de décision au sein du groupe </t>
+    <t>Âge</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>Niveau d’études</t>
+  </si>
+  <si>
+    <t>Situation actuelle</t>
+  </si>
+  <si>
+    <t>Expérience préalable sur le jeu de Galèrapagos </t>
+  </si>
+  <si>
+    <t>Cartes disponibles au premier tour de jeu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caractérisation de chaque prise de décision au sein du groupe </t>
   </si>
   <si>
     <t>Rational decision-making model</t>
@@ -211,6 +229,9 @@
       </rPr>
       <t xml:space="preserve">OUI / NON </t>
     </r>
+  </si>
+  <si>
+    <t>Nombre de tours joués :</t>
   </si>
   <si>
     <t>Temps de jeu total :</t>
@@ -475,7 +496,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -542,7 +563,7 @@
     <xf numFmtId="49" fontId="6" fillId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -561,9 +582,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="9" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1630,7 +1648,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G37"/>
+  <dimension ref="A2:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A4" xSplit="0" ySplit="3" activePane="bottomLeft" state="frozen"/>
@@ -2020,58 +2038,58 @@
       <c r="G29" s="20"/>
     </row>
     <row r="30" ht="36.75" customHeight="1">
-      <c r="A30" t="s" s="22">
+      <c r="A30" t="s" s="21">
         <v>31</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" ht="36.75" customHeight="1">
-      <c r="A31" t="s" s="24">
+      <c r="A31" t="s" s="13">
         <v>32</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" t="s" s="13">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" ht="36.75" customHeight="1">
-      <c r="A32" t="s" s="27">
+      <c r="A32" t="s" s="13">
         <v>33</v>
       </c>
-      <c r="B32" t="s" s="28">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" t="s" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" ht="36.75" customHeight="1">
+      <c r="A33" t="s" s="13">
         <v>34</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" t="s" s="29">
-        <v>35</v>
-      </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="30"/>
-    </row>
-    <row r="33" ht="36.75" customHeight="1">
-      <c r="A33" t="s" s="31">
-        <v>36</v>
-      </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" t="s" s="31">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" t="s" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="34" ht="36.75" customHeight="1">
       <c r="A34" t="s" s="13">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -2084,7 +2102,7 @@
     </row>
     <row r="35" ht="36.75" customHeight="1">
       <c r="A35" t="s" s="13">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -2096,49 +2114,147 @@
       </c>
     </row>
     <row r="36" ht="36.75" customHeight="1">
-      <c r="A36" t="s" s="13">
+      <c r="A36" t="s" s="22">
+        <v>37</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" t="s" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" ht="36.75" customHeight="1">
+      <c r="A37" t="s" s="24">
+        <v>38</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
+    </row>
+    <row r="38" ht="36.75" customHeight="1">
+      <c r="A38" t="s" s="27">
         <v>39</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" t="s" s="13">
+      <c r="B38" t="s" s="28">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" ht="36.75" customHeight="1">
-      <c r="A37" t="s" s="19">
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" t="s" s="22">
         <v>41</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" t="s" s="13">
+      <c r="F38" s="23"/>
+      <c r="G38" s="29"/>
+    </row>
+    <row r="39" ht="36.75" customHeight="1">
+      <c r="A39" t="s" s="30">
+        <v>42</v>
+      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" t="s" s="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" ht="36.75" customHeight="1">
+      <c r="A40" t="s" s="13">
+        <v>43</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" t="s" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" ht="36.75" customHeight="1">
+      <c r="A41" t="s" s="13">
+        <v>44</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" t="s" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" ht="36.75" customHeight="1">
+      <c r="A42" t="s" s="13">
+        <v>45</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" t="s" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" ht="36.75" customHeight="1">
+      <c r="A43" t="s" s="13">
+        <v>47</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" t="s" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" ht="36.75" customHeight="1">
+      <c r="A44" t="s" s="19">
+        <v>48</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" t="s" s="13">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="23">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="B10:G10"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A32:F32"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A31:F31"/>
     <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A43:F43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
